--- a/files/polls/CHL_2020-1.xlsx
+++ b/files/polls/CHL_2020-1.xlsx
@@ -150,10 +150,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>J. Lavín</t>
-  </si>
-  <si>
-    <t>D. Jadue</t>
+    <t>Aprueba</t>
+  </si>
+  <si>
+    <t>Rechaza</t>
   </si>
 </sst>
 </file>

--- a/files/polls/CHL_2020-1.xlsx
+++ b/files/polls/CHL_2020-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
   <si>
     <t>Fecha</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>28/06/2020</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
   </si>
   <si>
     <t>Encuesta</t>
@@ -199,7 +202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -207,16 +210,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -224,7 +227,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>704</v>
@@ -241,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -258,7 +261,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -275,7 +278,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>1159</v>
@@ -292,7 +295,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>1014</v>
@@ -309,7 +312,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1">
         <v>1215</v>
@@ -326,7 +329,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1">
         <v>1030</v>
@@ -343,7 +346,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1">
         <v>562</v>
@@ -360,7 +363,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1">
         <v>709</v>
@@ -377,7 +380,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1">
         <v>1496</v>
@@ -394,7 +397,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>707</v>
@@ -411,7 +414,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1">
         <v>780</v>
@@ -428,7 +431,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1">
         <v>1000</v>
@@ -445,7 +448,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1">
         <v>950</v>
@@ -462,7 +465,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1">
         <v>487</v>
@@ -479,7 +482,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1">
         <v>1033</v>
@@ -496,7 +499,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1">
         <v>709</v>
@@ -513,7 +516,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1">
         <v>806</v>
@@ -530,7 +533,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1">
         <v>975</v>
@@ -547,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1">
         <v>477</v>
@@ -564,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1">
         <v>708</v>
@@ -581,7 +584,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1">
         <v>709</v>
@@ -598,7 +601,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1">
         <v>1045</v>
@@ -615,7 +618,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1">
         <v>525</v>
@@ -632,7 +635,7 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1">
         <v>705</v>
@@ -649,7 +652,7 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
         <v>1445</v>
@@ -666,7 +669,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1">
         <v>705</v>
@@ -683,7 +686,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1">
         <v>1043</v>
@@ -700,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
         <v>583</v>
@@ -717,7 +720,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
         <v>702</v>
@@ -734,7 +737,7 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1">
         <v>707</v>
@@ -751,7 +754,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1">
         <v>1135</v>
@@ -768,7 +771,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1">
         <v>690</v>
@@ -785,7 +788,7 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
         <v>702</v>
@@ -802,7 +805,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1">
         <v>1273</v>
@@ -819,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
         <v>702</v>
@@ -836,7 +839,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <v>1230</v>
@@ -853,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
         <v>690</v>
@@ -870,7 +873,7 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1">
         <v>1270</v>
@@ -887,7 +890,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
         <v>725</v>
@@ -904,7 +907,7 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1">
         <v>1227</v>
@@ -921,7 +924,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="1">
         <v>736</v>
@@ -938,7 +941,7 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1">
         <v>712</v>
@@ -955,7 +958,7 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1">
         <v>1209</v>
@@ -972,7 +975,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1">
         <v>724</v>
@@ -989,7 +992,7 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1">
         <v>1215</v>
@@ -1006,7 +1009,7 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1">
         <v>661</v>
@@ -1023,7 +1026,7 @@
         <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1">
         <v>1730</v>
@@ -1040,7 +1043,7 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1">
         <v>960</v>
@@ -1057,7 +1060,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1">
         <v>1260</v>
@@ -1074,7 +1077,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C52" s="1">
         <v>670</v>
@@ -1084,6 +1087,40 @@
       </c>
       <c r="E52" s="1">
         <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1340</v>
+      </c>
+      <c r="D53" s="1">
+        <v>72</v>
+      </c>
+      <c r="E53" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="1">
+        <v>747</v>
+      </c>
+      <c r="D54" s="1">
+        <v>88</v>
+      </c>
+      <c r="E54" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2020-1.xlsx
+++ b/files/polls/CHL_2020-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
   <si>
     <t>Fecha</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>01/08/2020</t>
   </si>
   <si>
     <t>Encuesta</t>
@@ -202,7 +205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -210,16 +213,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -227,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1">
         <v>704</v>
@@ -244,7 +247,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -261,7 +264,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -278,7 +281,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
         <v>1159</v>
@@ -295,7 +298,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1">
         <v>1014</v>
@@ -312,7 +315,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1">
         <v>1215</v>
@@ -329,7 +332,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1">
         <v>1030</v>
@@ -346,7 +349,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1">
         <v>562</v>
@@ -363,7 +366,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>709</v>
@@ -380,7 +383,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1">
         <v>1496</v>
@@ -397,7 +400,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
         <v>707</v>
@@ -414,7 +417,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>780</v>
@@ -431,7 +434,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1">
         <v>1000</v>
@@ -448,7 +451,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
         <v>950</v>
@@ -465,7 +468,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1">
         <v>487</v>
@@ -482,7 +485,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1">
         <v>1033</v>
@@ -499,7 +502,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1">
         <v>709</v>
@@ -516,7 +519,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
         <v>806</v>
@@ -533,7 +536,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>975</v>
@@ -550,7 +553,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1">
         <v>477</v>
@@ -567,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
         <v>708</v>
@@ -584,7 +587,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1">
         <v>709</v>
@@ -601,7 +604,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1">
         <v>1045</v>
@@ -618,7 +621,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1">
         <v>525</v>
@@ -635,7 +638,7 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1">
         <v>705</v>
@@ -652,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1">
         <v>1445</v>
@@ -669,7 +672,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1">
         <v>705</v>
@@ -686,7 +689,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1">
         <v>1043</v>
@@ -703,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1">
         <v>583</v>
@@ -720,7 +723,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1">
         <v>702</v>
@@ -737,7 +740,7 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1">
         <v>707</v>
@@ -754,7 +757,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1">
         <v>1135</v>
@@ -771,7 +774,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1">
         <v>690</v>
@@ -788,7 +791,7 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1">
         <v>702</v>
@@ -805,7 +808,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
         <v>1273</v>
@@ -822,7 +825,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1">
         <v>702</v>
@@ -839,7 +842,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
         <v>1230</v>
@@ -856,7 +859,7 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1">
         <v>690</v>
@@ -873,7 +876,7 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
         <v>1270</v>
@@ -890,7 +893,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
         <v>725</v>
@@ -907,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
         <v>1227</v>
@@ -924,7 +927,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1">
         <v>736</v>
@@ -941,7 +944,7 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" s="1">
         <v>712</v>
@@ -958,7 +961,7 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C45" s="1">
         <v>1209</v>
@@ -975,7 +978,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1">
         <v>724</v>
@@ -992,7 +995,7 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="1">
         <v>1215</v>
@@ -1009,7 +1012,7 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1">
         <v>661</v>
@@ -1026,7 +1029,7 @@
         <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1">
         <v>1730</v>
@@ -1043,7 +1046,7 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1">
         <v>960</v>
@@ -1060,7 +1063,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1">
         <v>1260</v>
@@ -1077,7 +1080,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1">
         <v>670</v>
@@ -1094,7 +1097,7 @@
         <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C53" s="1">
         <v>1340</v>
@@ -1111,7 +1114,7 @@
         <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C54" s="1">
         <v>747</v>
@@ -1121,6 +1124,40 @@
       </c>
       <c r="E54" s="1">
         <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D55" s="1">
+        <v>77</v>
+      </c>
+      <c r="E55" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="1">
+        <v>797</v>
+      </c>
+      <c r="D56" s="1">
+        <v>91</v>
+      </c>
+      <c r="E56" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2020-1.xlsx
+++ b/files/polls/CHL_2020-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>Fecha</t>
   </si>
@@ -84,6 +84,9 @@
     <t>28/02/2020</t>
   </si>
   <si>
+    <t>29/02/2020</t>
+  </si>
+  <si>
     <t>06/03/2020</t>
   </si>
   <si>
@@ -117,13 +120,22 @@
     <t>30/05/2020</t>
   </si>
   <si>
+    <t>31/05/2020</t>
+  </si>
+  <si>
     <t>13/06/2020</t>
   </si>
   <si>
     <t>28/06/2020</t>
   </si>
   <si>
+    <t>30/06/2020</t>
+  </si>
+  <si>
     <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>31/07/2020</t>
   </si>
   <si>
     <t>01/08/2020</t>
@@ -205,7 +217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -213,16 +225,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -230,7 +242,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1">
         <v>704</v>
@@ -247,7 +259,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -264,7 +276,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -281,7 +293,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1">
         <v>1159</v>
@@ -298,7 +310,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1">
         <v>1014</v>
@@ -315,7 +327,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>1215</v>
@@ -332,7 +344,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1">
         <v>1030</v>
@@ -349,7 +361,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1">
         <v>562</v>
@@ -366,7 +378,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1">
         <v>709</v>
@@ -383,7 +395,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <v>1496</v>
@@ -400,7 +412,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1">
         <v>707</v>
@@ -417,7 +429,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1">
         <v>780</v>
@@ -434,7 +446,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1">
         <v>1000</v>
@@ -451,7 +463,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1">
         <v>950</v>
@@ -468,7 +480,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1">
         <v>487</v>
@@ -485,7 +497,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1">
         <v>1033</v>
@@ -502,7 +514,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1">
         <v>709</v>
@@ -519,7 +531,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
         <v>806</v>
@@ -536,7 +548,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1">
         <v>975</v>
@@ -553,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1">
         <v>477</v>
@@ -570,7 +582,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>708</v>
@@ -587,7 +599,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1">
         <v>709</v>
@@ -604,7 +616,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
         <v>1045</v>
@@ -621,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1">
         <v>525</v>
@@ -638,7 +650,7 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1">
         <v>705</v>
@@ -655,7 +667,7 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1">
         <v>1445</v>
@@ -672,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1">
         <v>705</v>
@@ -689,7 +701,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1">
         <v>1043</v>
@@ -706,7 +718,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1">
         <v>583</v>
@@ -723,7 +735,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1">
         <v>702</v>
@@ -740,16 +752,16 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1">
-        <v>707</v>
+        <v>796</v>
       </c>
       <c r="D32" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -757,33 +769,33 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1">
-        <v>1135</v>
+        <v>707</v>
       </c>
       <c r="D33" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1">
-        <v>690</v>
+        <v>1135</v>
       </c>
       <c r="D34" s="1">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E34" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -791,16 +803,16 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="D35" s="1">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E35" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -808,16 +820,16 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1">
-        <v>1273</v>
+        <v>702</v>
       </c>
       <c r="D36" s="1">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -825,16 +837,16 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
-        <v>702</v>
+        <v>1273</v>
       </c>
       <c r="D37" s="1">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E37" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -842,33 +854,33 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1">
-        <v>1230</v>
+        <v>702</v>
       </c>
       <c r="D38" s="1">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E38" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1">
-        <v>690</v>
+        <v>1230</v>
       </c>
       <c r="D39" s="1">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E39" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -876,33 +888,33 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1">
-        <v>1270</v>
+        <v>690</v>
       </c>
       <c r="D40" s="1">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E40" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
-        <v>725</v>
+        <v>1270</v>
       </c>
       <c r="D41" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E41" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -910,33 +922,33 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
-        <v>1227</v>
+        <v>725</v>
       </c>
       <c r="D42" s="1">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E42" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
-        <v>736</v>
+        <v>1227</v>
       </c>
       <c r="D43" s="1">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E43" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -944,16 +956,16 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="D44" s="1">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E44" s="1">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -961,33 +973,33 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1">
-        <v>1209</v>
+        <v>712</v>
       </c>
       <c r="D45" s="1">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E45" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1">
-        <v>724</v>
+        <v>1209</v>
       </c>
       <c r="D46" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E46" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -995,33 +1007,33 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1">
-        <v>1215</v>
+        <v>724</v>
       </c>
       <c r="D47" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E47" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1">
-        <v>661</v>
+        <v>1215</v>
       </c>
       <c r="D48" s="1">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E48" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -1029,64 +1041,64 @@
         <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C49" s="1">
-        <v>1730</v>
+        <v>661</v>
       </c>
       <c r="D49" s="1">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E49" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="D50" s="1">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E50" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C51" s="1">
-        <v>1260</v>
+        <v>1730</v>
       </c>
       <c r="D51" s="1">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E51" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1">
-        <v>670</v>
+        <v>960</v>
       </c>
       <c r="D52" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1">
         <v>9</v>
@@ -1094,69 +1106,137 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C53" s="1">
-        <v>1340</v>
+        <v>1260</v>
       </c>
       <c r="D53" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E53" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C54" s="1">
-        <v>747</v>
+        <v>670</v>
       </c>
       <c r="D54" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1">
-        <v>1430</v>
+        <v>800</v>
       </c>
       <c r="D55" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1340</v>
+      </c>
+      <c r="D56" s="1">
+        <v>72</v>
+      </c>
+      <c r="E56" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="1">
+        <v>747</v>
+      </c>
+      <c r="D57" s="1">
+        <v>88</v>
+      </c>
+      <c r="E57" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="1">
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="1">
+        <v>800</v>
+      </c>
+      <c r="D58" s="1">
+        <v>75</v>
+      </c>
+      <c r="E58" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D59" s="1">
+        <v>77</v>
+      </c>
+      <c r="E59" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="1">
         <v>797</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D60" s="1">
         <v>91</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E60" s="1">
         <v>9</v>
       </c>
     </row>

--- a/files/polls/CHL_2020-1.xlsx
+++ b/files/polls/CHL_2020-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>Fecha</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>01/08/2020</t>
+  </si>
+  <si>
+    <t>15/08/2020</t>
   </si>
   <si>
     <t>Encuesta</t>
@@ -217,7 +220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -225,16 +228,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -242,7 +245,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1">
         <v>704</v>
@@ -259,7 +262,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -276,7 +279,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -293,7 +296,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
         <v>1159</v>
@@ -310,7 +313,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>1014</v>
@@ -327,7 +330,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1">
         <v>1215</v>
@@ -344,7 +347,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>1030</v>
@@ -358,390 +361,390 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="1">
-        <v>562</v>
+        <v>709</v>
       </c>
       <c r="D9" s="1">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
-        <v>709</v>
+        <v>1496</v>
       </c>
       <c r="D10" s="1">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
-        <v>1496</v>
+        <v>707</v>
       </c>
       <c r="D11" s="1">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1">
-        <v>707</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="1">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1">
-        <v>780</v>
+        <v>950</v>
       </c>
       <c r="D13" s="1">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="D14" s="1">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="1">
-        <v>950</v>
+        <v>709</v>
       </c>
       <c r="D15" s="1">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1">
-        <v>487</v>
+        <v>806</v>
       </c>
       <c r="D16" s="1">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1">
-        <v>1033</v>
+        <v>975</v>
       </c>
       <c r="D17" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D18" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1">
-        <v>806</v>
+        <v>709</v>
       </c>
       <c r="D19" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1">
-        <v>975</v>
+        <v>1045</v>
       </c>
       <c r="D20" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="1">
-        <v>477</v>
+        <v>705</v>
       </c>
       <c r="D21" s="1">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1">
-        <v>708</v>
+        <v>1445</v>
       </c>
       <c r="D22" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D23" s="1">
         <v>67</v>
       </c>
       <c r="E23" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D24" s="1">
         <v>70</v>
       </c>
       <c r="E24" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="1">
-        <v>525</v>
+        <v>702</v>
       </c>
       <c r="D25" s="1">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1">
-        <v>705</v>
+        <v>796</v>
       </c>
       <c r="D26" s="1">
         <v>67</v>
       </c>
       <c r="E26" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
-        <v>1445</v>
+        <v>707</v>
       </c>
       <c r="D27" s="1">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1">
-        <v>705</v>
+        <v>1135</v>
       </c>
       <c r="D28" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="1">
-        <v>1043</v>
+        <v>702</v>
       </c>
       <c r="D29" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
-        <v>583</v>
+        <v>1273</v>
       </c>
       <c r="D30" s="1">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E30" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1">
         <v>702</v>
       </c>
       <c r="D31" s="1">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E31" s="1">
         <v>25</v>
@@ -749,495 +752,240 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="1">
-        <v>796</v>
+        <v>1230</v>
       </c>
       <c r="D32" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E32" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1">
-        <v>707</v>
+        <v>1270</v>
       </c>
       <c r="D33" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1">
-        <v>1135</v>
+        <v>1227</v>
       </c>
       <c r="D34" s="1">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E34" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="1">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="D35" s="1">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
-        <v>702</v>
+        <v>1209</v>
       </c>
       <c r="D36" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
-        <v>1273</v>
+        <v>1215</v>
       </c>
       <c r="D37" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E37" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
-        <v>702</v>
+        <v>800</v>
       </c>
       <c r="D38" s="1">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E38" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1">
-        <v>1230</v>
+        <v>1730</v>
       </c>
       <c r="D39" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E39" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1">
-        <v>690</v>
+        <v>1260</v>
       </c>
       <c r="D40" s="1">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E40" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
-        <v>1270</v>
+        <v>800</v>
       </c>
       <c r="D41" s="1">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
-        <v>725</v>
+        <v>1340</v>
       </c>
       <c r="D42" s="1">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E42" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
-        <v>1227</v>
+        <v>800</v>
       </c>
       <c r="D43" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E43" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1">
-        <v>736</v>
+        <v>1430</v>
       </c>
       <c r="D44" s="1">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E44" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1">
-        <v>712</v>
+        <v>1434</v>
       </c>
       <c r="D45" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E45" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1209</v>
-      </c>
-      <c r="D46" s="1">
-        <v>70</v>
-      </c>
-      <c r="E46" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="1">
-        <v>724</v>
-      </c>
-      <c r="D47" s="1">
-        <v>85</v>
-      </c>
-      <c r="E47" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1215</v>
-      </c>
-      <c r="D48" s="1">
-        <v>70</v>
-      </c>
-      <c r="E48" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="1">
-        <v>661</v>
-      </c>
-      <c r="D49" s="1">
-        <v>84</v>
-      </c>
-      <c r="E49" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="1">
-        <v>800</v>
-      </c>
-      <c r="D50" s="1">
-        <v>72</v>
-      </c>
-      <c r="E50" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1730</v>
-      </c>
-      <c r="D51" s="1">
-        <v>73</v>
-      </c>
-      <c r="E51" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="1">
-        <v>960</v>
-      </c>
-      <c r="D52" s="1">
-        <v>91</v>
-      </c>
-      <c r="E52" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1260</v>
-      </c>
-      <c r="D53" s="1">
-        <v>68</v>
-      </c>
-      <c r="E53" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="1">
-        <v>670</v>
-      </c>
-      <c r="D54" s="1">
-        <v>90</v>
-      </c>
-      <c r="E54" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="1">
-        <v>800</v>
-      </c>
-      <c r="D55" s="1">
-        <v>76</v>
-      </c>
-      <c r="E55" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1340</v>
-      </c>
-      <c r="D56" s="1">
-        <v>72</v>
-      </c>
-      <c r="E56" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="1">
-        <v>747</v>
-      </c>
-      <c r="D57" s="1">
-        <v>88</v>
-      </c>
-      <c r="E57" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="1">
-        <v>800</v>
-      </c>
-      <c r="D58" s="1">
-        <v>75</v>
-      </c>
-      <c r="E58" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1430</v>
-      </c>
-      <c r="D59" s="1">
-        <v>77</v>
-      </c>
-      <c r="E59" s="1">
         <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="1">
-        <v>797</v>
-      </c>
-      <c r="D60" s="1">
-        <v>91</v>
-      </c>
-      <c r="E60" s="1">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2020-1.xlsx
+++ b/files/polls/CHL_2020-1.xlsx
@@ -171,10 +171,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>Aprueba</t>
-  </si>
-  <si>
-    <t>Rechaza</t>
+    <t>Apruebo</t>
+  </si>
+  <si>
+    <t>Rechazo</t>
   </si>
 </sst>
 </file>

--- a/files/polls/CHL_2020-1.xlsx
+++ b/files/polls/CHL_2020-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
   <si>
     <t>Fecha</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Prob</t>
   </si>
   <si>
     <t>Apruebo</t>
@@ -220,7 +223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -239,6 +242,9 @@
       <c r="E1" t="s">
         <v>53</v>
       </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -251,9 +257,12 @@
         <v>704</v>
       </c>
       <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>82</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>16</v>
       </c>
     </row>
@@ -268,9 +277,12 @@
         <v>2000</v>
       </c>
       <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>81</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>8</v>
       </c>
     </row>
@@ -285,9 +297,12 @@
         <v>706</v>
       </c>
       <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>85</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>12</v>
       </c>
     </row>
@@ -302,9 +317,12 @@
         <v>1159</v>
       </c>
       <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>79</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>7</v>
       </c>
     </row>
@@ -319,9 +337,12 @@
         <v>1014</v>
       </c>
       <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>72</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>13</v>
       </c>
     </row>
@@ -336,9 +357,12 @@
         <v>1215</v>
       </c>
       <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>86</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>8</v>
       </c>
     </row>
@@ -353,9 +377,12 @@
         <v>1030</v>
       </c>
       <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>78</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>10</v>
       </c>
     </row>
@@ -370,9 +397,12 @@
         <v>709</v>
       </c>
       <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>72</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>20</v>
       </c>
     </row>
@@ -387,9 +417,12 @@
         <v>1496</v>
       </c>
       <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>67</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>13</v>
       </c>
     </row>
@@ -404,9 +437,12 @@
         <v>707</v>
       </c>
       <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>74</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>19</v>
       </c>
     </row>
@@ -421,9 +457,12 @@
         <v>1000</v>
       </c>
       <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>68</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>17</v>
       </c>
     </row>
@@ -438,9 +477,12 @@
         <v>950</v>
       </c>
       <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>78</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>9</v>
       </c>
     </row>
@@ -455,9 +497,12 @@
         <v>1033</v>
       </c>
       <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>73</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>22</v>
       </c>
     </row>
@@ -472,9 +517,12 @@
         <v>709</v>
       </c>
       <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
         <v>66</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>25</v>
       </c>
     </row>
@@ -489,9 +537,12 @@
         <v>806</v>
       </c>
       <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>71</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>21</v>
       </c>
     </row>
@@ -506,9 +557,12 @@
         <v>975</v>
       </c>
       <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>69</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>15</v>
       </c>
     </row>
@@ -523,9 +577,12 @@
         <v>708</v>
       </c>
       <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>72</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>22</v>
       </c>
     </row>
@@ -540,9 +597,12 @@
         <v>709</v>
       </c>
       <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <v>67</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>27</v>
       </c>
     </row>
@@ -557,9 +617,12 @@
         <v>1045</v>
       </c>
       <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
         <v>70</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>14</v>
       </c>
     </row>
@@ -574,9 +637,12 @@
         <v>705</v>
       </c>
       <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
         <v>67</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>26</v>
       </c>
     </row>
@@ -591,9 +657,12 @@
         <v>1445</v>
       </c>
       <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
         <v>75</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>15</v>
       </c>
     </row>
@@ -608,9 +677,12 @@
         <v>705</v>
       </c>
       <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
         <v>67</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>25</v>
       </c>
     </row>
@@ -625,9 +697,12 @@
         <v>1043</v>
       </c>
       <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
         <v>70</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>13</v>
       </c>
     </row>
@@ -642,9 +717,12 @@
         <v>702</v>
       </c>
       <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>67</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>25</v>
       </c>
     </row>
@@ -659,9 +737,12 @@
         <v>796</v>
       </c>
       <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
         <v>67</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>22</v>
       </c>
     </row>
@@ -676,9 +757,12 @@
         <v>707</v>
       </c>
       <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
         <v>66</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>24</v>
       </c>
     </row>
@@ -693,9 +777,12 @@
         <v>1135</v>
       </c>
       <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
         <v>65</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>14</v>
       </c>
     </row>
@@ -710,9 +797,12 @@
         <v>702</v>
       </c>
       <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
         <v>68</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>21</v>
       </c>
     </row>
@@ -727,9 +817,12 @@
         <v>1273</v>
       </c>
       <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
         <v>74</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>18</v>
       </c>
     </row>
@@ -744,9 +837,12 @@
         <v>702</v>
       </c>
       <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
         <v>62</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>25</v>
       </c>
     </row>
@@ -761,9 +857,12 @@
         <v>1230</v>
       </c>
       <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
         <v>69</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>17</v>
       </c>
     </row>
@@ -778,9 +877,12 @@
         <v>1270</v>
       </c>
       <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
         <v>70</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>17</v>
       </c>
     </row>
@@ -795,9 +897,12 @@
         <v>1227</v>
       </c>
       <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
         <v>74</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>11</v>
       </c>
     </row>
@@ -812,9 +917,12 @@
         <v>712</v>
       </c>
       <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
         <v>65</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>26</v>
       </c>
     </row>
@@ -829,9 +937,12 @@
         <v>1209</v>
       </c>
       <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
         <v>70</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>17</v>
       </c>
     </row>
@@ -846,9 +957,12 @@
         <v>1215</v>
       </c>
       <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
         <v>70</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>13</v>
       </c>
     </row>
@@ -863,9 +977,12 @@
         <v>800</v>
       </c>
       <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
         <v>72</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>20</v>
       </c>
     </row>
@@ -880,9 +997,12 @@
         <v>1730</v>
       </c>
       <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
         <v>73</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>11</v>
       </c>
     </row>
@@ -897,9 +1017,12 @@
         <v>1260</v>
       </c>
       <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
         <v>68</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>13</v>
       </c>
     </row>
@@ -914,9 +1037,12 @@
         <v>800</v>
       </c>
       <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
         <v>76</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>16</v>
       </c>
     </row>
@@ -931,9 +1057,12 @@
         <v>1340</v>
       </c>
       <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
         <v>72</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>12</v>
       </c>
     </row>
@@ -948,9 +1077,12 @@
         <v>800</v>
       </c>
       <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
         <v>75</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>17</v>
       </c>
     </row>
@@ -965,9 +1097,12 @@
         <v>1430</v>
       </c>
       <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
         <v>77</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>10</v>
       </c>
     </row>
@@ -982,9 +1117,12 @@
         <v>1434</v>
       </c>
       <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
         <v>68</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>10</v>
       </c>
     </row>

--- a/files/polls/CHL_2020-1.xlsx
+++ b/files/polls/CHL_2020-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
   <si>
     <t>Fecha</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>15/08/2020</t>
+  </si>
+  <si>
+    <t>24/08/2020</t>
   </si>
   <si>
     <t>Encuesta</t>
@@ -223,7 +226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F63"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -231,19 +234,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -251,7 +254,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1">
         <v>704</v>
@@ -271,7 +274,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -291,7 +294,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -311,7 +314,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
         <v>1159</v>
@@ -331,7 +334,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
         <v>1014</v>
@@ -351,7 +354,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>1215</v>
@@ -371,7 +374,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1">
         <v>1030</v>
@@ -388,293 +391,293 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1">
-        <v>709</v>
+        <v>562</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1">
-        <v>1496</v>
+        <v>709</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
-        <v>707</v>
+        <v>1496</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1">
-        <v>1000</v>
+        <v>707</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
-        <v>950</v>
+        <v>780</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
-        <v>709</v>
+        <v>950</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="1">
-        <v>806</v>
+        <v>487</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1">
-        <v>975</v>
+        <v>1033</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1">
-        <v>709</v>
+        <v>806</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1">
-        <v>1045</v>
+        <v>975</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1">
-        <v>705</v>
+        <v>477</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1">
-        <v>1445</v>
+        <v>708</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -683,18 +686,18 @@
         <v>67</v>
       </c>
       <c r="F23" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -703,38 +706,38 @@
         <v>70</v>
       </c>
       <c r="F24" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1">
-        <v>702</v>
+        <v>525</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F25" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1">
-        <v>796</v>
+        <v>705</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -743,95 +746,95 @@
         <v>67</v>
       </c>
       <c r="F26" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1">
-        <v>707</v>
+        <v>1445</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F27" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="1">
-        <v>1135</v>
+        <v>705</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1">
-        <v>702</v>
+        <v>1043</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1">
-        <v>1273</v>
+        <v>583</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F30" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1">
         <v>702</v>
@@ -840,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F31" s="1">
         <v>25</v>
@@ -848,282 +851,642 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1">
-        <v>1230</v>
+        <v>796</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F32" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="1">
-        <v>1270</v>
+        <v>707</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F33" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1">
-        <v>1227</v>
+        <v>1135</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F34" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F35" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="1">
-        <v>1209</v>
+        <v>702</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F36" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1">
-        <v>1215</v>
+        <v>1273</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F37" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1">
-        <v>800</v>
+        <v>702</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1">
-        <v>1730</v>
+        <v>1230</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F39" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
-        <v>1260</v>
+        <v>690</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F40" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="1">
-        <v>800</v>
+        <v>1270</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F41" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1">
-        <v>1340</v>
+        <v>725</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F42" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="1">
-        <v>800</v>
+        <v>1227</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F43" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1">
-        <v>1430</v>
+        <v>736</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F44" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="1">
+        <v>712</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>65</v>
+      </c>
+      <c r="F45" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1209</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>70</v>
+      </c>
+      <c r="F46" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1">
+        <v>724</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>85</v>
+      </c>
+      <c r="F47" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1215</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>70</v>
+      </c>
+      <c r="F48" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1">
+        <v>661</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>84</v>
+      </c>
+      <c r="F49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1">
+        <v>800</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>72</v>
+      </c>
+      <c r="F50" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1730</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>73</v>
+      </c>
+      <c r="F51" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="1">
+        <v>960</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>91</v>
+      </c>
+      <c r="F52" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1260</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>68</v>
+      </c>
+      <c r="F53" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="1">
+        <v>670</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>90</v>
+      </c>
+      <c r="F54" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1">
+        <v>800</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>76</v>
+      </c>
+      <c r="F55" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1340</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>72</v>
+      </c>
+      <c r="F56" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="1">
+        <v>747</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>88</v>
+      </c>
+      <c r="F57" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="1">
+        <v>800</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>75</v>
+      </c>
+      <c r="F58" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>77</v>
+      </c>
+      <c r="F59" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="1">
+        <v>797</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>91</v>
+      </c>
+      <c r="F60" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="1">
         <v>1434</v>
       </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
         <v>68</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F61" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1434</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>89</v>
+      </c>
+      <c r="F62" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1940</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>73</v>
+      </c>
+      <c r="F63" s="1">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2020-1.xlsx
+++ b/files/polls/CHL_2020-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="71">
   <si>
     <t>Fecha</t>
   </si>
@@ -181,6 +181,51 @@
   </si>
   <si>
     <t>Rechazo</t>
+  </si>
+  <si>
+    <t>pregunta</t>
+  </si>
+  <si>
+    <t>¿Está de acuerdo o en desacuerdo con que Chile necesita una Nueva Constitución?</t>
+  </si>
+  <si>
+    <t>Pensando en que el plebiscito de Abril 2020 para decidir una nueva constitución fuera este domingo ¿Quiere usted una nueva constitución? (votante probable)</t>
+  </si>
+  <si>
+    <t>¿Quiere usted una nueva constitución?</t>
+  </si>
+  <si>
+    <t>¿Quiere usted una nueva Constitución? ¿qué votará?</t>
+  </si>
+  <si>
+    <t>Si el plebiscito de abril para elegir si Chile aprueba o rechaza una Nueva Constitución fuera el próximo domingo, ¿Ud. votaría…?</t>
+  </si>
+  <si>
+    <t>¿Usted aprueba o rechaza una nueva Constitución?</t>
+  </si>
+  <si>
+    <t>¿Quiere una nueva Constitución? (entre los que dicen que votaran)</t>
+  </si>
+  <si>
+    <t>¿Quiere una nueva Constitución? (entre todos los votantes)</t>
+  </si>
+  <si>
+    <t>Si el Plebiscito fuera el próximo domingo donde las opciones son: Apruebo o Rechazo la redacción de una Nueva Constitución ¿Cómo votaría Ud.?</t>
+  </si>
+  <si>
+    <t>¿Quiere usted una nueva contitución?</t>
+  </si>
+  <si>
+    <t>¿Quiere usted una nueva constitución? (votante probable)</t>
+  </si>
+  <si>
+    <t>Si el Plebiscito fuera el próximo domingo donde las opciones son: “Apruebo” o “Rechazo” la redacción de una Nueva Constitución ¿Cómo votaría Ud.?</t>
+  </si>
+  <si>
+    <t>Si el Plebiscito fuera el próximo domingo, donde las opciones son: “Apruebo” o “Rechazo” la redacción de una Nueva Constitución, ¿cómo votaría Ud.?</t>
+  </si>
+  <si>
+    <t>Si el Plebiscito fuera el próximo domingo donde las opciones son: Apruebo o Rechazo la redacción de una Nueva Constitución, ¿cómo votaría Ud.?</t>
   </si>
 </sst>
 </file>
@@ -226,7 +271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G63"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -248,6 +293,9 @@
       <c r="F1" t="s">
         <v>55</v>
       </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -268,6 +316,9 @@
       <c r="F2" s="1">
         <v>16</v>
       </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -288,6 +339,9 @@
       <c r="F3" s="1">
         <v>8</v>
       </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -308,6 +362,9 @@
       <c r="F4" s="1">
         <v>12</v>
       </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -328,6 +385,9 @@
       <c r="F5" s="1">
         <v>7</v>
       </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -348,6 +408,9 @@
       <c r="F6" s="1">
         <v>13</v>
       </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -368,6 +431,9 @@
       <c r="F7" s="1">
         <v>8</v>
       </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -388,6 +454,9 @@
       <c r="F8" s="1">
         <v>10</v>
       </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -408,6 +477,9 @@
       <c r="F9" s="1">
         <v>5</v>
       </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -428,6 +500,9 @@
       <c r="F10" s="1">
         <v>20</v>
       </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -448,6 +523,9 @@
       <c r="F11" s="1">
         <v>13</v>
       </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -468,6 +546,9 @@
       <c r="F12" s="1">
         <v>19</v>
       </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -488,6 +569,9 @@
       <c r="F13" s="1">
         <v>10</v>
       </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -508,6 +592,9 @@
       <c r="F14" s="1">
         <v>17</v>
       </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -528,6 +615,9 @@
       <c r="F15" s="1">
         <v>9</v>
       </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -548,6 +638,9 @@
       <c r="F16" s="1">
         <v>7</v>
       </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -568,6 +661,9 @@
       <c r="F17" s="1">
         <v>22</v>
       </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -588,6 +684,9 @@
       <c r="F18" s="1">
         <v>25</v>
       </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -608,6 +707,9 @@
       <c r="F19" s="1">
         <v>21</v>
       </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -628,6 +730,9 @@
       <c r="F20" s="1">
         <v>15</v>
       </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -648,6 +753,9 @@
       <c r="F21" s="1">
         <v>14</v>
       </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -668,6 +776,9 @@
       <c r="F22" s="1">
         <v>22</v>
       </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -688,6 +799,9 @@
       <c r="F23" s="1">
         <v>27</v>
       </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -708,6 +822,9 @@
       <c r="F24" s="1">
         <v>14</v>
       </c>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -728,6 +845,9 @@
       <c r="F25" s="1">
         <v>18</v>
       </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -748,6 +868,9 @@
       <c r="F26" s="1">
         <v>26</v>
       </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -768,6 +891,9 @@
       <c r="F27" s="1">
         <v>15</v>
       </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -788,6 +914,9 @@
       <c r="F28" s="1">
         <v>25</v>
       </c>
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -808,6 +937,9 @@
       <c r="F29" s="1">
         <v>13</v>
       </c>
+      <c r="G29" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -828,6 +960,9 @@
       <c r="F30" s="1">
         <v>13</v>
       </c>
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -848,6 +983,9 @@
       <c r="F31" s="1">
         <v>25</v>
       </c>
+      <c r="G31" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -868,6 +1006,9 @@
       <c r="F32" s="1">
         <v>22</v>
       </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -888,6 +1029,9 @@
       <c r="F33" s="1">
         <v>24</v>
       </c>
+      <c r="G33" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -908,6 +1052,9 @@
       <c r="F34" s="1">
         <v>14</v>
       </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -928,6 +1075,9 @@
       <c r="F35" s="1">
         <v>15</v>
       </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -948,6 +1098,9 @@
       <c r="F36" s="1">
         <v>21</v>
       </c>
+      <c r="G36" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -968,6 +1121,9 @@
       <c r="F37" s="1">
         <v>18</v>
       </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -988,6 +1144,9 @@
       <c r="F38" s="1">
         <v>25</v>
       </c>
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -1008,6 +1167,9 @@
       <c r="F39" s="1">
         <v>17</v>
       </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1028,6 +1190,9 @@
       <c r="F40" s="1">
         <v>18</v>
       </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -1048,6 +1213,9 @@
       <c r="F41" s="1">
         <v>17</v>
       </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1068,6 +1236,9 @@
       <c r="F42" s="1">
         <v>13</v>
       </c>
+      <c r="G42" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1088,6 +1259,9 @@
       <c r="F43" s="1">
         <v>11</v>
       </c>
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1108,6 +1282,9 @@
       <c r="F44" s="1">
         <v>8</v>
       </c>
+      <c r="G44" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1128,6 +1305,9 @@
       <c r="F45" s="1">
         <v>26</v>
       </c>
+      <c r="G45" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -1148,6 +1328,9 @@
       <c r="F46" s="1">
         <v>17</v>
       </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -1168,6 +1351,9 @@
       <c r="F47" s="1">
         <v>14</v>
       </c>
+      <c r="G47" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1188,6 +1374,9 @@
       <c r="F48" s="1">
         <v>13</v>
       </c>
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1208,6 +1397,9 @@
       <c r="F49" s="1">
         <v>15</v>
       </c>
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -1228,6 +1420,9 @@
       <c r="F50" s="1">
         <v>20</v>
       </c>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1248,6 +1443,9 @@
       <c r="F51" s="1">
         <v>11</v>
       </c>
+      <c r="G51" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1268,6 +1466,9 @@
       <c r="F52" s="1">
         <v>9</v>
       </c>
+      <c r="G52" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -1288,6 +1489,9 @@
       <c r="F53" s="1">
         <v>13</v>
       </c>
+      <c r="G53" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -1308,6 +1512,9 @@
       <c r="F54" s="1">
         <v>9</v>
       </c>
+      <c r="G54" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1328,6 +1535,9 @@
       <c r="F55" s="1">
         <v>16</v>
       </c>
+      <c r="G55" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -1348,6 +1558,9 @@
       <c r="F56" s="1">
         <v>12</v>
       </c>
+      <c r="G56" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -1368,6 +1581,9 @@
       <c r="F57" s="1">
         <v>11</v>
       </c>
+      <c r="G57" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -1388,6 +1604,9 @@
       <c r="F58" s="1">
         <v>17</v>
       </c>
+      <c r="G58" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -1408,6 +1627,9 @@
       <c r="F59" s="1">
         <v>10</v>
       </c>
+      <c r="G59" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -1428,6 +1650,9 @@
       <c r="F60" s="1">
         <v>9</v>
       </c>
+      <c r="G60" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -1448,6 +1673,9 @@
       <c r="F61" s="1">
         <v>10</v>
       </c>
+      <c r="G61" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -1468,6 +1696,9 @@
       <c r="F62" s="1">
         <v>10</v>
       </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -1488,6 +1719,9 @@
       <c r="F63" s="1">
         <v>13</v>
       </c>
+      <c r="G63" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/files/polls/CHL_2020-1.xlsx
+++ b/files/polls/CHL_2020-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="74">
   <si>
     <t>Fecha</t>
   </si>
@@ -147,6 +147,9 @@
     <t>24/08/2020</t>
   </si>
   <si>
+    <t>29/08/2020</t>
+  </si>
+  <si>
     <t>Encuesta</t>
   </si>
   <si>
@@ -226,6 +229,12 @@
   </si>
   <si>
     <t>Si el Plebiscito fuera el próximo domingo donde las opciones son: Apruebo o Rechazo la redacción de una Nueva Constitución, ¿cómo votaría Ud.?</t>
+  </si>
+  <si>
+    <t>Pensando en que el plebiscito de Octubre 2020 para decidir una nueva constitución fuera este domingo ¿Quiere usted una nueva constitución?</t>
+  </si>
+  <si>
+    <t>Pensando en que el plebiscito de Octubre 2020 para decidir una nueva constitución fuera este domingo ¿Quiere usted una nueva constitución? (votante probable)</t>
   </si>
 </sst>
 </file>
@@ -271,7 +280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G65"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -279,22 +288,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -302,7 +311,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1">
         <v>704</v>
@@ -317,7 +326,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -325,7 +334,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -340,7 +349,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -348,7 +357,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -363,7 +372,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -371,7 +380,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>1159</v>
@@ -386,7 +395,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -394,7 +403,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>1014</v>
@@ -409,7 +418,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -417,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>1215</v>
@@ -432,7 +441,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -440,7 +449,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1">
         <v>1030</v>
@@ -455,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>562</v>
@@ -478,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -486,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1">
         <v>709</v>
@@ -501,7 +510,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -509,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
         <v>1496</v>
@@ -524,7 +533,7 @@
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1">
         <v>707</v>
@@ -547,7 +556,7 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1">
         <v>780</v>
@@ -570,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -578,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1">
         <v>1000</v>
@@ -593,7 +602,7 @@
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
         <v>950</v>
@@ -616,7 +625,7 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -624,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
         <v>487</v>
@@ -639,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
@@ -647,7 +656,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1">
         <v>1033</v>
@@ -662,7 +671,7 @@
         <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
@@ -670,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1">
         <v>709</v>
@@ -685,7 +694,7 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -693,7 +702,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1">
         <v>806</v>
@@ -708,7 +717,7 @@
         <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -716,7 +725,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1">
         <v>975</v>
@@ -731,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -739,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
         <v>477</v>
@@ -754,7 +763,7 @@
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +771,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1">
         <v>708</v>
@@ -777,7 +786,7 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
@@ -785,7 +794,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1">
         <v>709</v>
@@ -800,7 +809,7 @@
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
@@ -808,7 +817,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1">
         <v>1045</v>
@@ -823,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -831,7 +840,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1">
         <v>525</v>
@@ -846,7 +855,7 @@
         <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -854,7 +863,7 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1">
         <v>705</v>
@@ -869,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
@@ -877,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1">
         <v>1445</v>
@@ -892,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
@@ -900,7 +909,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1">
         <v>705</v>
@@ -915,7 +924,7 @@
         <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -923,7 +932,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
         <v>1043</v>
@@ -938,7 +947,7 @@
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -946,7 +955,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1">
         <v>583</v>
@@ -961,7 +970,7 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -969,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1">
         <v>702</v>
@@ -984,7 +993,7 @@
         <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
@@ -992,7 +1001,7 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1">
         <v>796</v>
@@ -1007,7 +1016,7 @@
         <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33">
@@ -1015,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1">
         <v>707</v>
@@ -1030,7 +1039,7 @@
         <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
@@ -1038,7 +1047,7 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1">
         <v>1135</v>
@@ -1053,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
@@ -1061,7 +1070,7 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1">
         <v>690</v>
@@ -1076,7 +1085,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
@@ -1084,7 +1093,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
         <v>702</v>
@@ -1099,7 +1108,7 @@
         <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
@@ -1107,7 +1116,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1">
         <v>1273</v>
@@ -1122,7 +1131,7 @@
         <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -1130,7 +1139,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
         <v>702</v>
@@ -1145,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
@@ -1153,7 +1162,7 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1">
         <v>1230</v>
@@ -1168,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
@@ -1176,7 +1185,7 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1">
         <v>690</v>
@@ -1191,7 +1200,7 @@
         <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
@@ -1199,7 +1208,7 @@
         <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1">
         <v>1270</v>
@@ -1214,7 +1223,7 @@
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
@@ -1222,7 +1231,7 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <v>725</v>
@@ -1237,7 +1246,7 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
@@ -1245,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <v>1227</v>
@@ -1260,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
@@ -1268,7 +1277,7 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1">
         <v>736</v>
@@ -1283,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45">
@@ -1291,7 +1300,7 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1">
         <v>712</v>
@@ -1306,7 +1315,7 @@
         <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
@@ -1314,7 +1323,7 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="1">
         <v>1209</v>
@@ -1329,7 +1338,7 @@
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47">
@@ -1337,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1">
         <v>724</v>
@@ -1352,7 +1361,7 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
@@ -1360,7 +1369,7 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1">
         <v>1215</v>
@@ -1375,7 +1384,7 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49">
@@ -1383,7 +1392,7 @@
         <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1">
         <v>661</v>
@@ -1398,7 +1407,7 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
@@ -1406,7 +1415,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1">
         <v>800</v>
@@ -1421,7 +1430,7 @@
         <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51">
@@ -1429,7 +1438,7 @@
         <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C51" s="1">
         <v>1730</v>
@@ -1444,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
@@ -1452,7 +1461,7 @@
         <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C52" s="1">
         <v>960</v>
@@ -1467,7 +1476,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53">
@@ -1475,7 +1484,7 @@
         <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C53" s="1">
         <v>1260</v>
@@ -1490,7 +1499,7 @@
         <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
@@ -1498,7 +1507,7 @@
         <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C54" s="1">
         <v>670</v>
@@ -1513,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55">
@@ -1521,7 +1530,7 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C55" s="1">
         <v>800</v>
@@ -1536,7 +1545,7 @@
         <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56">
@@ -1544,7 +1553,7 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C56" s="1">
         <v>1340</v>
@@ -1559,7 +1568,7 @@
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
@@ -1567,7 +1576,7 @@
         <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C57" s="1">
         <v>747</v>
@@ -1582,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58">
@@ -1590,7 +1599,7 @@
         <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C58" s="1">
         <v>800</v>
@@ -1605,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
@@ -1613,7 +1622,7 @@
         <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1">
         <v>1430</v>
@@ -1628,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
@@ -1636,7 +1645,7 @@
         <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C60" s="1">
         <v>797</v>
@@ -1651,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61">
@@ -1659,7 +1668,7 @@
         <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C61" s="1">
         <v>1434</v>
@@ -1674,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
@@ -1682,7 +1691,7 @@
         <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C62" s="1">
         <v>1434</v>
@@ -1697,7 +1706,7 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63">
@@ -1705,7 +1714,7 @@
         <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C63" s="1">
         <v>1940</v>
@@ -1720,7 +1729,53 @@
         <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1544</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>71</v>
+      </c>
+      <c r="F64" s="1">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="1">
+        <v>920</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>89</v>
+      </c>
+      <c r="F65" s="1">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2020-1.xlsx
+++ b/files/polls/CHL_2020-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="76">
   <si>
     <t>Fecha</t>
   </si>
@@ -150,6 +150,9 @@
     <t>29/08/2020</t>
   </si>
   <si>
+    <t>31/08/2020</t>
+  </si>
+  <si>
     <t>Encuesta</t>
   </si>
   <si>
@@ -235,6 +238,9 @@
   </si>
   <si>
     <t>Pensando en que el plebiscito de Octubre 2020 para decidir una nueva constitución fuera este domingo ¿Quiere usted una nueva constitución? (votante probable)</t>
+  </si>
+  <si>
+    <t>Pensando en el Plebiscito de Octubre por un cambio constitucional, frente a la pregunta ¿quieres una nueva constitución? ¿qué votarías? (MAYO A AGOSTO)</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -288,22 +294,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -311,7 +317,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1">
         <v>704</v>
@@ -326,7 +332,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -334,7 +340,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -349,7 +355,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -357,7 +363,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -372,7 +378,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -380,7 +386,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>1159</v>
@@ -395,7 +401,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -403,7 +409,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1">
         <v>1014</v>
@@ -418,7 +424,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +432,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1">
         <v>1215</v>
@@ -441,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -449,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1">
         <v>1030</v>
@@ -464,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -472,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1">
         <v>562</v>
@@ -487,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -495,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
         <v>709</v>
@@ -510,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1">
         <v>1496</v>
@@ -533,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -541,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <v>707</v>
@@ -556,7 +562,7 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -564,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1">
         <v>780</v>
@@ -579,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -587,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1">
         <v>1000</v>
@@ -602,7 +608,7 @@
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -610,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <v>950</v>
@@ -625,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -633,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1">
         <v>487</v>
@@ -648,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -656,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1">
         <v>1033</v>
@@ -671,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
@@ -679,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1">
         <v>709</v>
@@ -694,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -702,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1">
         <v>806</v>
@@ -717,7 +723,7 @@
         <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -725,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1">
         <v>975</v>
@@ -740,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -748,7 +754,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1">
         <v>477</v>
@@ -763,7 +769,7 @@
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -771,7 +777,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
         <v>708</v>
@@ -786,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -794,7 +800,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1">
         <v>709</v>
@@ -809,7 +815,7 @@
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -817,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1">
         <v>1045</v>
@@ -832,7 +838,7 @@
         <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
@@ -840,7 +846,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1">
         <v>525</v>
@@ -855,7 +861,7 @@
         <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -863,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1">
         <v>705</v>
@@ -878,7 +884,7 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -886,7 +892,7 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1">
         <v>1445</v>
@@ -901,7 +907,7 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -909,7 +915,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1">
         <v>705</v>
@@ -924,7 +930,7 @@
         <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -932,7 +938,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1">
         <v>1043</v>
@@ -947,7 +953,7 @@
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -955,7 +961,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1">
         <v>583</v>
@@ -970,7 +976,7 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -978,7 +984,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="1">
         <v>702</v>
@@ -993,7 +999,7 @@
         <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1">
         <v>796</v>
@@ -1016,7 +1022,7 @@
         <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33">
@@ -1024,7 +1030,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1">
         <v>707</v>
@@ -1039,7 +1045,7 @@
         <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
@@ -1047,7 +1053,7 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1">
         <v>1135</v>
@@ -1062,7 +1068,7 @@
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35">
@@ -1070,7 +1076,7 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1">
         <v>690</v>
@@ -1085,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -1093,7 +1099,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
         <v>702</v>
@@ -1108,7 +1114,7 @@
         <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37">
@@ -1116,7 +1122,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="1">
         <v>1273</v>
@@ -1131,7 +1137,7 @@
         <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
@@ -1139,7 +1145,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1">
         <v>702</v>
@@ -1154,7 +1160,7 @@
         <v>25</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39">
@@ -1162,7 +1168,7 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1">
         <v>1230</v>
@@ -1177,7 +1183,7 @@
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
@@ -1185,7 +1191,7 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1">
         <v>690</v>
@@ -1200,7 +1206,7 @@
         <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -1208,7 +1214,7 @@
         <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <v>1270</v>
@@ -1223,7 +1229,7 @@
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42">
@@ -1231,7 +1237,7 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <v>725</v>
@@ -1246,7 +1252,7 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -1254,7 +1260,7 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <v>1227</v>
@@ -1269,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44">
@@ -1277,7 +1283,7 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1">
         <v>736</v>
@@ -1292,7 +1298,7 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45">
@@ -1300,7 +1306,7 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="1">
         <v>712</v>
@@ -1315,7 +1321,7 @@
         <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46">
@@ -1323,7 +1329,7 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1">
         <v>1209</v>
@@ -1338,7 +1344,7 @@
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47">
@@ -1346,7 +1352,7 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1">
         <v>724</v>
@@ -1361,7 +1367,7 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -1369,7 +1375,7 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1">
         <v>1215</v>
@@ -1384,7 +1390,7 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
@@ -1392,7 +1398,7 @@
         <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1">
         <v>661</v>
@@ -1407,7 +1413,7 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -1415,7 +1421,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="1">
         <v>800</v>
@@ -1430,7 +1436,7 @@
         <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51">
@@ -1438,7 +1444,7 @@
         <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1">
         <v>1730</v>
@@ -1453,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52">
@@ -1461,7 +1467,7 @@
         <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" s="1">
         <v>960</v>
@@ -1476,7 +1482,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
@@ -1484,7 +1490,7 @@
         <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C53" s="1">
         <v>1260</v>
@@ -1499,7 +1505,7 @@
         <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54">
@@ -1507,7 +1513,7 @@
         <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C54" s="1">
         <v>670</v>
@@ -1522,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55">
@@ -1530,7 +1536,7 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C55" s="1">
         <v>800</v>
@@ -1545,7 +1551,7 @@
         <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56">
@@ -1553,7 +1559,7 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C56" s="1">
         <v>1340</v>
@@ -1568,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
@@ -1576,7 +1582,7 @@
         <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C57" s="1">
         <v>747</v>
@@ -1591,7 +1597,7 @@
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58">
@@ -1599,7 +1605,7 @@
         <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C58" s="1">
         <v>800</v>
@@ -1614,7 +1620,7 @@
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59">
@@ -1622,7 +1628,7 @@
         <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C59" s="1">
         <v>1430</v>
@@ -1637,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
@@ -1645,7 +1651,7 @@
         <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1">
         <v>797</v>
@@ -1660,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61">
@@ -1668,7 +1674,7 @@
         <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1">
         <v>1434</v>
@@ -1683,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62">
@@ -1691,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62" s="1">
         <v>1434</v>
@@ -1706,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63">
@@ -1714,7 +1720,7 @@
         <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C63" s="1">
         <v>1940</v>
@@ -1729,7 +1735,7 @@
         <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64">
@@ -1737,7 +1743,7 @@
         <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C64" s="1">
         <v>1544</v>
@@ -1752,7 +1758,7 @@
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
@@ -1760,7 +1766,7 @@
         <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C65" s="1">
         <v>920</v>
@@ -1775,7 +1781,30 @@
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="1">
+        <v>986</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>74</v>
+      </c>
+      <c r="F66" s="1">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2020-1.xlsx
+++ b/files/polls/CHL_2020-1.xlsx
@@ -1700,7 +1700,7 @@
         <v>48</v>
       </c>
       <c r="C62" s="1">
-        <v>1434</v>
+        <v>857</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>

--- a/files/polls/CHL_2020-1.xlsx
+++ b/files/polls/CHL_2020-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
   <si>
     <t>Fecha</t>
   </si>
@@ -210,9 +210,6 @@
     <t>¿Usted aprueba o rechaza una nueva Constitución?</t>
   </si>
   <si>
-    <t>¿Quiere una nueva Constitución? (entre los que dicen que votaran)</t>
-  </si>
-  <si>
     <t>¿Quiere una nueva Constitución? (entre todos los votantes)</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>¿Quiere usted una nueva contitución?</t>
   </si>
   <si>
-    <t>¿Quiere usted una nueva constitución? (votante probable)</t>
-  </si>
-  <si>
     <t>Si el Plebiscito fuera el próximo domingo donde las opciones son: “Apruebo” o “Rechazo” la redacción de una Nueva Constitución ¿Cómo votaría Ud.?</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
   </si>
   <si>
     <t>Pensando en que el plebiscito de Octubre 2020 para decidir una nueva constitución fuera este domingo ¿Quiere usted una nueva constitución?</t>
-  </si>
-  <si>
-    <t>Pensando en que el plebiscito de Octubre 2020 para decidir una nueva constitución fuera este domingo ¿Quiere usted una nueva constitución? (votante probable)</t>
   </si>
   <si>
     <t>Pensando en el Plebiscito de Octubre por un cambio constitucional, frente a la pregunta ¿quieres una nueva constitución? ¿qué votarías? (MAYO A AGOSTO)</t>
@@ -286,7 +277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G48"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -475,137 +466,137 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1">
-        <v>562</v>
+        <v>709</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1">
-        <v>709</v>
+        <v>1496</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1">
-        <v>1496</v>
+        <v>707</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1">
-        <v>707</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1">
-        <v>780</v>
+        <v>950</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
         <v>66</v>
@@ -613,91 +604,91 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
-        <v>950</v>
+        <v>709</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1">
-        <v>487</v>
+        <v>806</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1">
-        <v>1033</v>
+        <v>975</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="1">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
         <v>63</v>
@@ -705,105 +696,105 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1">
-        <v>806</v>
+        <v>709</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F19" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="1">
-        <v>975</v>
+        <v>1045</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
-        <v>477</v>
+        <v>705</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F21" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1">
-        <v>708</v>
+        <v>1445</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="1">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -812,7 +803,7 @@
         <v>67</v>
       </c>
       <c r="F23" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
         <v>63</v>
@@ -820,13 +811,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="1">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -835,7 +826,7 @@
         <v>70</v>
       </c>
       <c r="F24" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
         <v>61</v>
@@ -843,36 +834,36 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1">
-        <v>525</v>
+        <v>702</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F25" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1">
-        <v>705</v>
+        <v>796</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -881,99 +872,99 @@
         <v>67</v>
       </c>
       <c r="F26" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1">
-        <v>1445</v>
+        <v>707</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F27" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
-        <v>705</v>
+        <v>1135</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
-        <v>1043</v>
+        <v>702</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1">
-        <v>583</v>
+        <v>1273</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F30" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
         <v>69</v>
@@ -981,7 +972,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
@@ -993,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F31" s="1">
         <v>25</v>
@@ -1004,68 +995,68 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1">
-        <v>796</v>
+        <v>1230</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1">
-        <v>707</v>
+        <v>1270</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F33" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="1">
-        <v>1135</v>
+        <v>1227</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F34" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
         <v>61</v>
@@ -1073,114 +1064,114 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F35" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1">
-        <v>702</v>
+        <v>1209</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F36" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
-        <v>1273</v>
+        <v>1215</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F37" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1">
-        <v>702</v>
+        <v>800</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F38" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="1">
-        <v>1230</v>
+        <v>1730</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F39" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
         <v>61</v>
@@ -1188,623 +1179,209 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="1">
-        <v>690</v>
+        <v>1260</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F40" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1">
-        <v>1270</v>
+        <v>800</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F41" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="1">
-        <v>725</v>
+        <v>1340</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F42" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
-        <v>1227</v>
+        <v>800</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="1">
-        <v>736</v>
+        <v>1430</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F44" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1">
-        <v>712</v>
+        <v>1434</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F45" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C46" s="1">
-        <v>1209</v>
+        <v>1940</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
+        <v>73</v>
+      </c>
+      <c r="F46" s="1">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
         <v>70</v>
-      </c>
-      <c r="F46" s="1">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>724</v>
+        <v>1544</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F47" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="1">
-        <v>1215</v>
+        <v>986</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F48" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="1">
-        <v>661</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>84</v>
-      </c>
-      <c r="F49" s="1">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="1">
-        <v>800</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
         <v>72</v>
-      </c>
-      <c r="F50" s="1">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1730</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <v>73</v>
-      </c>
-      <c r="F51" s="1">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="1">
-        <v>960</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1">
-        <v>91</v>
-      </c>
-      <c r="F52" s="1">
-        <v>9</v>
-      </c>
-      <c r="G52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1260</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1">
-        <v>68</v>
-      </c>
-      <c r="F53" s="1">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="1">
-        <v>670</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1">
-        <v>90</v>
-      </c>
-      <c r="F54" s="1">
-        <v>9</v>
-      </c>
-      <c r="G54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="1">
-        <v>800</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1">
-        <v>76</v>
-      </c>
-      <c r="F55" s="1">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1340</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>72</v>
-      </c>
-      <c r="F56" s="1">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="1">
-        <v>747</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1">
-        <v>88</v>
-      </c>
-      <c r="F57" s="1">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="1">
-        <v>800</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>75</v>
-      </c>
-      <c r="F58" s="1">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1430</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>77</v>
-      </c>
-      <c r="F59" s="1">
-        <v>10</v>
-      </c>
-      <c r="G59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="1">
-        <v>797</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1">
-        <v>91</v>
-      </c>
-      <c r="F60" s="1">
-        <v>9</v>
-      </c>
-      <c r="G60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1434</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>68</v>
-      </c>
-      <c r="F61" s="1">
-        <v>10</v>
-      </c>
-      <c r="G61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="1">
-        <v>857</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1">
-        <v>89</v>
-      </c>
-      <c r="F62" s="1">
-        <v>10</v>
-      </c>
-      <c r="G62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1940</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
-        <v>73</v>
-      </c>
-      <c r="F63" s="1">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1544</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1">
-        <v>71</v>
-      </c>
-      <c r="F64" s="1">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="1">
-        <v>920</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1">
-        <v>89</v>
-      </c>
-      <c r="F65" s="1">
-        <v>9</v>
-      </c>
-      <c r="G65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="1">
-        <v>986</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1">
-        <v>74</v>
-      </c>
-      <c r="F66" s="1">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
